--- a/Data/Excel/FCFS/18.xlsx
+++ b/Data/Excel/FCFS/18.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54.1</v>
+        <v>44.2</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53.56</v>
+        <v>43.67</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.03</v>
+        <v>43.13</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>52.5</v>
+        <v>42.6</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51.96</v>
+        <v>42.07</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51.43</v>
+        <v>41.53</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50.9</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.36</v>
+        <v>40.47</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>49.83</v>
+        <v>39.93</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.3</v>
+        <v>39.4</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>48.76</v>
+        <v>38.87</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>48.23</v>
+        <v>38.33</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>47.7</v>
+        <v>37.8</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.16</v>
+        <v>37.27</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46.63</v>
+        <v>36.73</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46.1</v>
+        <v>36.2</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45.56</v>
+        <v>35.67</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.03</v>
+        <v>35.13</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.5</v>
+        <v>34.6</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.96</v>
+        <v>34.07</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.43</v>
+        <v>33.53</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.9</v>
+        <v>33</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.36</v>
+        <v>32.47</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>41.83</v>
+        <v>31.93</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.3</v>
+        <v>31.4</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.76</v>
+        <v>30.87</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.23</v>
+        <v>30.33</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>39.7</v>
+        <v>29.8</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.16</v>
+        <v>29.27</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38.63</v>
+        <v>28.73</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.1</v>
+        <v>28.2</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.56</v>
+        <v>27.67</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37.03</v>
+        <v>27.13</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>36.5</v>
+        <v>26.6</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>35.96</v>
+        <v>26.07</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35.43</v>
+        <v>25.53</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.9</v>
+        <v>25</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.36</v>
+        <v>24.47</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>33.83</v>
+        <v>23.93</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.3</v>
+        <v>23.4</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>32.76</v>
+        <v>22.87</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32.23</v>
+        <v>22.33</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>31.7</v>
+        <v>21.8</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.16</v>
+        <v>21.27</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.63</v>
+        <v>20.73</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.1</v>
+        <v>20.2</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1373,6 +1373,506 @@
         <v>3.14</v>
       </c>
       <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19.67</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>17</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>10.61</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1.92</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="D67" t="n">
+        <v>8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="D69" t="n">
+        <v>8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1387,7 +1887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1435,10 +1935,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>59.92</v>
+        <v>49.42</v>
       </c>
       <c r="D2" t="n">
-        <v>11.11</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>-1.57</v>
@@ -1455,10 +1955,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.18</v>
+        <v>48.76</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>-1.57</v>
@@ -1475,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>58.38</v>
+        <v>48.11</v>
       </c>
       <c r="D4" t="n">
-        <v>12.98</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>-1.57</v>
@@ -1495,10 +1995,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>57.51</v>
+        <v>47.46</v>
       </c>
       <c r="D5" t="n">
-        <v>13.76</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>-1.57</v>
@@ -1515,10 +2015,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>56.59</v>
+        <v>46.82</v>
       </c>
       <c r="D6" t="n">
-        <v>14.45</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>-1.57</v>
@@ -1535,10 +2035,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>55.63</v>
+        <v>46.18</v>
       </c>
       <c r="D7" t="n">
-        <v>15.07</v>
+        <v>9.49</v>
       </c>
       <c r="E7" t="n">
         <v>-1.57</v>
@@ -1555,10 +2055,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>54.63</v>
+        <v>45.55</v>
       </c>
       <c r="D8" t="n">
-        <v>15.62</v>
+        <v>9.44</v>
       </c>
       <c r="E8" t="n">
         <v>-1.57</v>
@@ -1575,10 +2075,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>53.59</v>
+        <v>44.92</v>
       </c>
       <c r="D9" t="n">
-        <v>16.1</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>-1.57</v>
@@ -1595,10 +2095,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>52.51</v>
+        <v>44.29</v>
       </c>
       <c r="D10" t="n">
-        <v>16.54</v>
+        <v>9.35</v>
       </c>
       <c r="E10" t="n">
         <v>-1.57</v>
@@ -1615,10 +2115,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>51.41</v>
+        <v>43.67</v>
       </c>
       <c r="D11" t="n">
-        <v>16.92</v>
+        <v>9.31</v>
       </c>
       <c r="E11" t="n">
         <v>-1.57</v>
@@ -1635,10 +2135,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>50.28</v>
+        <v>43.05</v>
       </c>
       <c r="D12" t="n">
-        <v>17.26</v>
+        <v>9.27</v>
       </c>
       <c r="E12" t="n">
         <v>-1.57</v>
@@ -1655,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>49.13</v>
+        <v>42.43</v>
       </c>
       <c r="D13" t="n">
-        <v>17.57</v>
+        <v>9.24</v>
       </c>
       <c r="E13" t="n">
         <v>-1.57</v>
@@ -1675,10 +2175,10 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>47.96</v>
+        <v>41.82</v>
       </c>
       <c r="D14" t="n">
-        <v>17.84</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>-1.57</v>
@@ -1695,10 +2195,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>46.77</v>
+        <v>41.2</v>
       </c>
       <c r="D15" t="n">
-        <v>18.08</v>
+        <v>9.19</v>
       </c>
       <c r="E15" t="n">
         <v>-1.57</v>
@@ -1715,10 +2215,10 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>45.56</v>
+        <v>40.59</v>
       </c>
       <c r="D16" t="n">
-        <v>18.29</v>
+        <v>9.17</v>
       </c>
       <c r="E16" t="n">
         <v>-1.57</v>
@@ -1735,10 +2235,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>44.35</v>
+        <v>39.98</v>
       </c>
       <c r="D17" t="n">
-        <v>18.48</v>
+        <v>9.15</v>
       </c>
       <c r="E17" t="n">
         <v>-1.57</v>
@@ -1755,10 +2255,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>43.11</v>
+        <v>39.37</v>
       </c>
       <c r="D18" t="n">
-        <v>18.65</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>-1.57</v>
@@ -1775,10 +2275,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>41.87</v>
+        <v>38.76</v>
       </c>
       <c r="D19" t="n">
-        <v>18.8</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>-1.57</v>
@@ -1795,10 +2295,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>40.62</v>
+        <v>38.15</v>
       </c>
       <c r="D20" t="n">
-        <v>18.93</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>-1.57</v>
@@ -1815,10 +2315,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>39.35</v>
+        <v>37.54</v>
       </c>
       <c r="D21" t="n">
-        <v>19.05</v>
+        <v>9.09</v>
       </c>
       <c r="E21" t="n">
         <v>-1.57</v>
@@ -1835,10 +2335,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>38.08</v>
+        <v>36.94</v>
       </c>
       <c r="D22" t="n">
-        <v>19.16</v>
+        <v>9.08</v>
       </c>
       <c r="E22" t="n">
         <v>-1.57</v>
@@ -1855,10 +2355,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>36.81</v>
+        <v>36.33</v>
       </c>
       <c r="D23" t="n">
-        <v>19.25</v>
+        <v>9.07</v>
       </c>
       <c r="E23" t="n">
         <v>-1.57</v>
@@ -1875,10 +2375,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>35.52</v>
+        <v>35.73</v>
       </c>
       <c r="D24" t="n">
-        <v>19.33</v>
+        <v>9.07</v>
       </c>
       <c r="E24" t="n">
         <v>-1.57</v>
@@ -1895,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>34.24</v>
+        <v>35.12</v>
       </c>
       <c r="D25" t="n">
-        <v>19.41</v>
+        <v>9.06</v>
       </c>
       <c r="E25" t="n">
         <v>-1.57</v>
@@ -1915,10 +2415,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>32.94</v>
+        <v>34.52</v>
       </c>
       <c r="D26" t="n">
-        <v>19.47</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>-1.57</v>
@@ -1935,10 +2435,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>31.64</v>
+        <v>33.91</v>
       </c>
       <c r="D27" t="n">
-        <v>19.53</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>-1.57</v>
@@ -1955,10 +2455,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>30.34</v>
+        <v>33.31</v>
       </c>
       <c r="D28" t="n">
-        <v>19.58</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E28" t="n">
         <v>-1.57</v>
@@ -1975,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>29.04</v>
+        <v>32.71</v>
       </c>
       <c r="D29" t="n">
-        <v>19.63</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>-1.57</v>
@@ -1995,10 +2495,10 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>27.73</v>
+        <v>32.11</v>
       </c>
       <c r="D30" t="n">
-        <v>19.67</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>-1.57</v>
@@ -2015,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>26.42</v>
+        <v>31.5</v>
       </c>
       <c r="D31" t="n">
-        <v>19.71</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>-1.57</v>
@@ -2035,10 +2535,10 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>25.1</v>
+        <v>30.9</v>
       </c>
       <c r="D32" t="n">
-        <v>20.3</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E32" t="n">
         <v>-1.57</v>
@@ -2055,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>23.75</v>
+        <v>30.3</v>
       </c>
       <c r="D33" t="n">
-        <v>20.82</v>
+        <v>8.52</v>
       </c>
       <c r="E33" t="n">
         <v>-1.57</v>
@@ -2075,10 +2575,10 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>22.36</v>
+        <v>29.73</v>
       </c>
       <c r="D34" t="n">
-        <v>21.28</v>
+        <v>8.08</v>
       </c>
       <c r="E34" t="n">
         <v>-1.57</v>
@@ -2095,10 +2595,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>20.94</v>
+        <v>29.19</v>
       </c>
       <c r="D35" t="n">
-        <v>21.7</v>
+        <v>7.68</v>
       </c>
       <c r="E35" t="n">
         <v>-1.57</v>
@@ -2115,10 +2615,10 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>19.49</v>
+        <v>28.68</v>
       </c>
       <c r="D36" t="n">
-        <v>22.06</v>
+        <v>7.33</v>
       </c>
       <c r="E36" t="n">
         <v>-1.57</v>
@@ -2135,10 +2635,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>18.02</v>
+        <v>28.19</v>
       </c>
       <c r="D37" t="n">
-        <v>22.39</v>
+        <v>7.01</v>
       </c>
       <c r="E37" t="n">
         <v>-1.57</v>
@@ -2155,10 +2655,10 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>16.53</v>
+        <v>27.73</v>
       </c>
       <c r="D38" t="n">
-        <v>22.68</v>
+        <v>6.73</v>
       </c>
       <c r="E38" t="n">
         <v>-1.57</v>
@@ -2175,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>15.02</v>
+        <v>27.28</v>
       </c>
       <c r="D39" t="n">
-        <v>23.49</v>
+        <v>5.98</v>
       </c>
       <c r="E39" t="n">
         <v>-1.57</v>
@@ -2195,10 +2695,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>13.45</v>
+        <v>26.88</v>
       </c>
       <c r="D40" t="n">
-        <v>24.22</v>
+        <v>5.32</v>
       </c>
       <c r="E40" t="n">
         <v>-1.57</v>
@@ -2212,16 +2712,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>11.84</v>
+        <v>26.52</v>
       </c>
       <c r="D41" t="n">
-        <v>24.86</v>
+        <v>4.73</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.58</v>
+        <v>-1.57</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2232,16 +2732,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>10.19</v>
+        <v>26.21</v>
       </c>
       <c r="D42" t="n">
-        <v>25.43</v>
+        <v>4.2</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.62</v>
+        <v>-1.57</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2252,16 +2752,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>8.51</v>
+        <v>25.93</v>
       </c>
       <c r="D43" t="n">
-        <v>25.94</v>
+        <v>3.74</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.69</v>
+        <v>-1.57</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -2272,16 +2772,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>6.83</v>
+        <v>25.68</v>
       </c>
       <c r="D44" t="n">
-        <v>26.39</v>
+        <v>3.32</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.78</v>
+        <v>-1.57</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2292,16 +2792,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.59</v>
+        <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>5.18</v>
+        <v>25.46</v>
       </c>
       <c r="D45" t="n">
-        <v>26.79</v>
+        <v>2.95</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.88</v>
+        <v>-1.57</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2312,16 +2812,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.23</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>3.6</v>
+        <v>25.26</v>
       </c>
       <c r="D46" t="n">
-        <v>27.15</v>
+        <v>2.62</v>
       </c>
       <c r="E46" t="n">
-        <v>-2</v>
+        <v>-1.57</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2332,18 +2832,518 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.23</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>2.11</v>
+        <v>25.09</v>
       </c>
       <c r="D47" t="n">
-        <v>27.46</v>
+        <v>2.33</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.13</v>
+        <v>-1.57</v>
       </c>
       <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24.93</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>24.67</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>24.46</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>23.95</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>23.82</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="n">
+        <v>23.77</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2358,7 +3358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2403,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.17</v>
+        <v>-52.16</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>11.11</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>-0</v>
@@ -2423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-59.43</v>
+        <v>-51.5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>-0</v>
@@ -2443,13 +3443,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-58.62</v>
+        <v>-50.84</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>12.98</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>-0</v>
@@ -2463,13 +3463,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-57.76</v>
+        <v>-50.2</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>13.76</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
@@ -2483,13 +3483,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-56.84</v>
+        <v>-49.56</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>14.45</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>-0</v>
@@ -2503,13 +3503,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-55.88</v>
+        <v>-48.92</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>15.07</v>
+        <v>9.49</v>
       </c>
       <c r="E7" t="n">
         <v>-0</v>
@@ -2523,13 +3523,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-54.87</v>
+        <v>-48.29</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>15.62</v>
+        <v>9.44</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
@@ -2543,13 +3543,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-53.83</v>
+        <v>-47.66</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>16.1</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>-0</v>
@@ -2563,13 +3563,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-52.76</v>
+        <v>-47.03</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>16.54</v>
+        <v>9.35</v>
       </c>
       <c r="E10" t="n">
         <v>-0</v>
@@ -2583,13 +3583,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-51.65</v>
+        <v>-46.41</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>16.92</v>
+        <v>9.31</v>
       </c>
       <c r="E11" t="n">
         <v>-0</v>
@@ -2603,13 +3603,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-50.53</v>
+        <v>-45.79</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>17.26</v>
+        <v>9.27</v>
       </c>
       <c r="E12" t="n">
         <v>-0</v>
@@ -2623,13 +3623,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-49.37</v>
+        <v>-45.17</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>17.57</v>
+        <v>9.24</v>
       </c>
       <c r="E13" t="n">
         <v>-0</v>
@@ -2643,13 +3643,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-48.2</v>
+        <v>-44.55</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>17.84</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>-0</v>
@@ -2663,13 +3663,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-47.01</v>
+        <v>-43.94</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>18.08</v>
+        <v>9.19</v>
       </c>
       <c r="E15" t="n">
         <v>-0</v>
@@ -2683,13 +3683,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-45.81</v>
+        <v>-43.33</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>18.29</v>
+        <v>9.17</v>
       </c>
       <c r="E16" t="n">
         <v>-0</v>
@@ -2703,13 +3703,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-44.59</v>
+        <v>-42.71</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>18.48</v>
+        <v>9.15</v>
       </c>
       <c r="E17" t="n">
         <v>-0</v>
@@ -2723,13 +3723,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-43.36</v>
+        <v>-42.1</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>18.65</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>-0</v>
@@ -2743,13 +3743,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-42.11</v>
+        <v>-41.5</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>18.8</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>-0</v>
@@ -2763,13 +3763,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-40.86</v>
+        <v>-40.89</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>18.93</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>-0</v>
@@ -2783,13 +3783,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-39.6</v>
+        <v>-40.28</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>19.05</v>
+        <v>9.09</v>
       </c>
       <c r="E21" t="n">
         <v>-0</v>
@@ -2803,13 +3803,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-38.33</v>
+        <v>-39.67</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>19.16</v>
+        <v>9.08</v>
       </c>
       <c r="E22" t="n">
         <v>-0</v>
@@ -2823,13 +3823,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-37.05</v>
+        <v>-39.07</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>19.25</v>
+        <v>9.07</v>
       </c>
       <c r="E23" t="n">
         <v>-0</v>
@@ -2843,13 +3843,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-35.77</v>
+        <v>-38.46</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>19.33</v>
+        <v>9.07</v>
       </c>
       <c r="E24" t="n">
         <v>-0</v>
@@ -2863,13 +3863,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-34.48</v>
+        <v>-37.86</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>19.41</v>
+        <v>9.06</v>
       </c>
       <c r="E25" t="n">
         <v>-0</v>
@@ -2883,13 +3883,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-33.19</v>
+        <v>-37.25</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>19.47</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>-0</v>
@@ -2903,13 +3903,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-31.89</v>
+        <v>-36.65</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>19.53</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>-0</v>
@@ -2923,13 +3923,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-30.59</v>
+        <v>-36.05</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>19.58</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E28" t="n">
         <v>-0</v>
@@ -2943,13 +3943,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-29.28</v>
+        <v>-35.45</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>19.63</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>-0</v>
@@ -2963,13 +3963,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-27.97</v>
+        <v>-34.84</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>19.67</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>-0</v>
@@ -2983,13 +3983,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-26.66</v>
+        <v>-34.24</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>19.71</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>-0</v>
@@ -3003,13 +4003,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-25.35</v>
+        <v>-33.64</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>19.74</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E32" t="n">
         <v>-0</v>
@@ -3023,13 +4023,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-24.03</v>
+        <v>-33.04</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>19.77</v>
+        <v>9.02</v>
       </c>
       <c r="E33" t="n">
         <v>-0</v>
@@ -3043,13 +4043,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-22.71</v>
+        <v>-32.44</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>19.79</v>
+        <v>9.02</v>
       </c>
       <c r="E34" t="n">
         <v>-0</v>
@@ -3063,13 +4063,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-21.39</v>
+        <v>-31.83</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>19.82</v>
+        <v>9.02</v>
       </c>
       <c r="E35" t="n">
         <v>-0</v>
@@ -3083,13 +4083,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-20.07</v>
+        <v>-31.23</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>19.84</v>
+        <v>9.02</v>
       </c>
       <c r="E36" t="n">
         <v>-0</v>
@@ -3103,13 +4103,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-18.75</v>
+        <v>-30.63</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>19.86</v>
+        <v>9.01</v>
       </c>
       <c r="E37" t="n">
         <v>-0</v>
@@ -3123,13 +4123,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-17.42</v>
+        <v>-30.03</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>19.87</v>
+        <v>8.51</v>
       </c>
       <c r="E38" t="n">
         <v>-0</v>
@@ -3143,13 +4143,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-16.1</v>
+        <v>-29.46</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>19.89</v>
+        <v>8.07</v>
       </c>
       <c r="E39" t="n">
         <v>-0</v>
@@ -3163,13 +4163,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-14.77</v>
+        <v>-28.93</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>19.9</v>
+        <v>7.67</v>
       </c>
       <c r="E40" t="n">
         <v>-0</v>
@@ -3183,13 +4183,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-13.45</v>
+        <v>-28.41</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>19.91</v>
+        <v>7.32</v>
       </c>
       <c r="E41" t="n">
         <v>-0</v>
@@ -3203,16 +4203,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-12.12</v>
+        <v>-27.93</v>
       </c>
       <c r="C42" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>19.92</v>
+        <v>7.01</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -3223,16 +4223,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-10.79</v>
+        <v>-27.46</v>
       </c>
       <c r="C43" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>20.48</v>
+        <v>6.73</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.02</v>
+        <v>-0</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -3243,16 +4243,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-9.44</v>
+        <v>-27.01</v>
       </c>
       <c r="C44" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>20.99</v>
+        <v>5.98</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -3263,16 +4263,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-8.06</v>
+        <v>-26.61</v>
       </c>
       <c r="C45" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>21.43</v>
+        <v>5.32</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.14</v>
+        <v>-0</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -3283,16 +4283,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-6.69</v>
+        <v>-26.26</v>
       </c>
       <c r="C46" t="n">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>21.83</v>
+        <v>4.72</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.22</v>
+        <v>-0</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -3303,18 +4303,518 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.38</v>
+        <v>-25.94</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>22.18</v>
+        <v>4.2</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.31</v>
+        <v>-0</v>
       </c>
       <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-25.66</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-25.41</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-25.19</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-25</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-24.82</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-24.67</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-24.53</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-24.41</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-24.11</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-24.04</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-23.97</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-23.91</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-23.85</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-23.81</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-23.76</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-23.73</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-23.69</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-23.63</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-23.54</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-23.43</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-23.29</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-23.14</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-22.94</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3329,7 +4829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3377,10 +4877,10 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-52.2</v>
+        <v>-42.3</v>
       </c>
       <c r="D2" t="n">
-        <v>11.67</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>1.57</v>
@@ -3397,10 +4897,10 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-51.42</v>
+        <v>-41.64</v>
       </c>
       <c r="D3" t="n">
-        <v>13.15</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>1.57</v>
@@ -3417,10 +4917,10 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-50.55</v>
+        <v>-40.98</v>
       </c>
       <c r="D4" t="n">
-        <v>14.47</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>1.57</v>
@@ -3437,10 +4937,10 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-49.58</v>
+        <v>-40.34</v>
       </c>
       <c r="D5" t="n">
-        <v>15.64</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>1.57</v>
@@ -3457,10 +4957,10 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-48.54</v>
+        <v>-39.7</v>
       </c>
       <c r="D6" t="n">
-        <v>16.68</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>1.57</v>
@@ -3477,10 +4977,10 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-47.43</v>
+        <v>-39.06</v>
       </c>
       <c r="D7" t="n">
-        <v>17.6</v>
+        <v>9.49</v>
       </c>
       <c r="E7" t="n">
         <v>1.57</v>
@@ -3497,10 +4997,10 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-46.25</v>
+        <v>-38.43</v>
       </c>
       <c r="D8" t="n">
-        <v>18.42</v>
+        <v>9.44</v>
       </c>
       <c r="E8" t="n">
         <v>1.57</v>
@@ -3517,10 +5017,10 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-45.03</v>
+        <v>-37.8</v>
       </c>
       <c r="D9" t="n">
-        <v>19.15</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="E9" t="n">
         <v>1.57</v>
@@ -3537,10 +5037,10 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-43.75</v>
+        <v>-37.17</v>
       </c>
       <c r="D10" t="n">
-        <v>19.8</v>
+        <v>9.35</v>
       </c>
       <c r="E10" t="n">
         <v>1.57</v>
@@ -3557,10 +5057,10 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-42.43</v>
+        <v>-36.55</v>
       </c>
       <c r="D11" t="n">
-        <v>20.38</v>
+        <v>9.31</v>
       </c>
       <c r="E11" t="n">
         <v>1.57</v>
@@ -3577,10 +5077,10 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-41.07</v>
+        <v>-35.93</v>
       </c>
       <c r="D12" t="n">
-        <v>20.89</v>
+        <v>9.27</v>
       </c>
       <c r="E12" t="n">
         <v>1.57</v>
@@ -3597,10 +5097,10 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-39.68</v>
+        <v>-35.31</v>
       </c>
       <c r="D13" t="n">
-        <v>21.35</v>
+        <v>9.24</v>
       </c>
       <c r="E13" t="n">
         <v>1.57</v>
@@ -3617,10 +5117,10 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-38.25</v>
+        <v>-34.69</v>
       </c>
       <c r="D14" t="n">
-        <v>21.76</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>1.57</v>
@@ -3637,10 +5137,10 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-36.8</v>
+        <v>-34.08</v>
       </c>
       <c r="D15" t="n">
-        <v>22.12</v>
+        <v>9.19</v>
       </c>
       <c r="E15" t="n">
         <v>1.57</v>
@@ -3657,10 +5157,10 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-35.33</v>
+        <v>-33.47</v>
       </c>
       <c r="D16" t="n">
-        <v>22.44</v>
+        <v>9.17</v>
       </c>
       <c r="E16" t="n">
         <v>1.57</v>
@@ -3677,10 +5177,10 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-33.83</v>
+        <v>-32.85</v>
       </c>
       <c r="D17" t="n">
-        <v>22.72</v>
+        <v>9.15</v>
       </c>
       <c r="E17" t="n">
         <v>1.57</v>
@@ -3697,10 +5197,10 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-32.32</v>
+        <v>-32.24</v>
       </c>
       <c r="D18" t="n">
-        <v>23.53</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>1.57</v>
@@ -3717,10 +5217,10 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-30.75</v>
+        <v>-31.64</v>
       </c>
       <c r="D19" t="n">
-        <v>24.25</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="E19" t="n">
         <v>1.57</v>
@@ -3737,10 +5237,10 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-29.13</v>
+        <v>-31.03</v>
       </c>
       <c r="D20" t="n">
-        <v>24.89</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>1.57</v>
@@ -3757,10 +5257,10 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-27.47</v>
+        <v>-30.42</v>
       </c>
       <c r="D21" t="n">
-        <v>25.46</v>
+        <v>9.09</v>
       </c>
       <c r="E21" t="n">
         <v>1.57</v>
@@ -3777,10 +5277,10 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-25.78</v>
+        <v>-29.81</v>
       </c>
       <c r="D22" t="n">
-        <v>25.96</v>
+        <v>9.08</v>
       </c>
       <c r="E22" t="n">
         <v>1.57</v>
@@ -3797,10 +5297,10 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-24.05</v>
+        <v>-29.21</v>
       </c>
       <c r="D23" t="n">
-        <v>26.41</v>
+        <v>9.07</v>
       </c>
       <c r="E23" t="n">
         <v>1.57</v>
@@ -3817,10 +5317,10 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-22.29</v>
+        <v>-28.6</v>
       </c>
       <c r="D24" t="n">
-        <v>26.81</v>
+        <v>9.07</v>
       </c>
       <c r="E24" t="n">
         <v>1.57</v>
@@ -3837,10 +5337,10 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-20.5</v>
+        <v>-28</v>
       </c>
       <c r="D25" t="n">
-        <v>27.16</v>
+        <v>9.06</v>
       </c>
       <c r="E25" t="n">
         <v>1.57</v>
@@ -3857,10 +5357,10 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-18.69</v>
+        <v>-27.39</v>
       </c>
       <c r="D26" t="n">
-        <v>27.48</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>1.57</v>
@@ -3877,10 +5377,10 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-16.86</v>
+        <v>-26.79</v>
       </c>
       <c r="D27" t="n">
-        <v>27.76</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>1.57</v>
@@ -3897,10 +5397,10 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-15.01</v>
+        <v>-26.19</v>
       </c>
       <c r="D28" t="n">
-        <v>28.01</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E28" t="n">
         <v>1.57</v>
@@ -3917,10 +5417,10 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-13.14</v>
+        <v>-25.59</v>
       </c>
       <c r="D29" t="n">
-        <v>28.23</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>1.57</v>
@@ -3934,16 +5434,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.95</v>
+        <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-11.26</v>
+        <v>-24.98</v>
       </c>
       <c r="D30" t="n">
-        <v>28.43</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -3954,16 +5454,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.76</v>
+        <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-9.369999999999999</v>
+        <v>-24.38</v>
       </c>
       <c r="D31" t="n">
-        <v>28.6</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -3974,16 +5474,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.39</v>
+        <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.5</v>
+        <v>-23.78</v>
       </c>
       <c r="D32" t="n">
-        <v>28.76</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -3994,16 +5494,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.67</v>
+        <v>-23.18</v>
       </c>
       <c r="D33" t="n">
-        <v>28.89</v>
+        <v>9.02</v>
       </c>
       <c r="E33" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -4014,16 +5514,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0</v>
+        <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.93</v>
+        <v>-22.58</v>
       </c>
       <c r="D34" t="n">
-        <v>29.02</v>
+        <v>9.02</v>
       </c>
       <c r="E34" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -4034,16 +5534,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.04</v>
+        <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.3</v>
+        <v>-21.97</v>
       </c>
       <c r="D35" t="n">
-        <v>29.13</v>
+        <v>9.02</v>
       </c>
       <c r="E35" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -4054,16 +5554,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.31</v>
+        <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.83</v>
+        <v>-21.37</v>
       </c>
       <c r="D36" t="n">
-        <v>29.22</v>
+        <v>9.02</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9</v>
+        <v>1.57</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -4074,16 +5574,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.79</v>
+        <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>0.44</v>
+        <v>-20.77</v>
       </c>
       <c r="D37" t="n">
-        <v>29.31</v>
+        <v>9.01</v>
       </c>
       <c r="E37" t="n">
-        <v>0.75</v>
+        <v>1.57</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -4094,16 +5594,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.45</v>
+        <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>1.48</v>
+        <v>-20.17</v>
       </c>
       <c r="D38" t="n">
-        <v>29.39</v>
+        <v>9.01</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6</v>
+        <v>1.57</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -4114,16 +5614,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.24</v>
+        <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>2.26</v>
+        <v>-19.57</v>
       </c>
       <c r="D39" t="n">
-        <v>29.45</v>
+        <v>9.01</v>
       </c>
       <c r="E39" t="n">
-        <v>0.45</v>
+        <v>1.57</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -4134,16 +5634,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.140000000000001</v>
+        <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>2.77</v>
+        <v>-18.97</v>
       </c>
       <c r="D40" t="n">
-        <v>29.52</v>
+        <v>9.01</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3</v>
+        <v>1.57</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -4154,16 +5654,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.08</v>
+        <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>3.08</v>
+        <v>-18.37</v>
       </c>
       <c r="D41" t="n">
-        <v>29.57</v>
+        <v>9.01</v>
       </c>
       <c r="E41" t="n">
-        <v>0.19</v>
+        <v>1.57</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -4174,16 +5674,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.05</v>
+        <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>3.24</v>
+        <v>-17.77</v>
       </c>
       <c r="D42" t="n">
-        <v>29.62</v>
+        <v>9.01</v>
       </c>
       <c r="E42" t="n">
-        <v>0.11</v>
+        <v>1.57</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -4194,16 +5694,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.02</v>
+        <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>3.31</v>
+        <v>-17.17</v>
       </c>
       <c r="D43" t="n">
-        <v>29.66</v>
+        <v>9.01</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05</v>
+        <v>1.57</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -4214,16 +5714,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17</v>
+        <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>3.3</v>
+        <v>-16.57</v>
       </c>
       <c r="D44" t="n">
-        <v>29.7</v>
+        <v>9.01</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01</v>
+        <v>1.57</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -4234,16 +5734,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18.97</v>
+        <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>3.25</v>
+        <v>-15.97</v>
       </c>
       <c r="D45" t="n">
-        <v>29.73</v>
+        <v>9.01</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.02</v>
+        <v>1.57</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -4254,16 +5754,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20.96</v>
+        <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>3.16</v>
+        <v>-15.37</v>
       </c>
       <c r="D46" t="n">
-        <v>29.76</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.04</v>
+        <v>1.57</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -4274,18 +5774,518 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22.94</v>
+        <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>3.07</v>
+        <v>-14.77</v>
       </c>
       <c r="D47" t="n">
-        <v>29.79</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.05</v>
+        <v>1.57</v>
       </c>
       <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-14.17</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-13.57</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-12.96</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-12.37</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-11.77</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-11.17</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-10.57</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-9.380000000000001</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-8.220000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-7.64</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-7.08</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-6.52</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-5.97</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-4.92</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-4.41</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-3.43</v>
+      </c>
+      <c r="D67" t="n">
+        <v>9</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-2.97</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>9</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="D72" t="n">
+        <v>9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F72" t="b">
         <v>0</v>
       </c>
     </row>
